--- a/Data_science_outputs/800pop/output_results/output_analysis_3.xlsx
+++ b/Data_science_outputs/800pop/output_results/output_analysis_3.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21299.7425381905</v>
+        <v>15716.53094379244</v>
       </c>
       <c r="C3" t="n">
         <v>12767.12389007946</v>
       </c>
       <c r="D3" t="n">
-        <v>6369.770408656337</v>
+        <v>781.2597083856616</v>
       </c>
       <c r="E3" t="n">
         <v>2180.381023700862</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7429.261616433704</v>
+        <v>6690.590462644857</v>
       </c>
       <c r="C4" t="n">
         <v>6233.454361952727</v>
       </c>
       <c r="D4" t="n">
-        <v>5752.029377802914</v>
+        <v>530.3026332473772</v>
       </c>
       <c r="E4" t="n">
         <v>1179.071275839932</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2603.034</v>
+        <v>2544.015</v>
       </c>
       <c r="C5" t="n">
         <v>2179.015</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15142.021</v>
+        <v>10516.012</v>
       </c>
       <c r="C6" t="n">
         <v>7990.001</v>
       </c>
       <c r="D6" t="n">
-        <v>208.001</v>
+        <v>202.003</v>
       </c>
       <c r="E6" t="n">
         <v>1364.001</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22423.13200000001</v>
+        <v>14086.03150000001</v>
       </c>
       <c r="C7" t="n">
         <v>10480.02</v>
       </c>
       <c r="D7" t="n">
-        <v>5960</v>
+        <v>1040</v>
       </c>
       <c r="E7" t="n">
         <v>1996.015</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26767.58000000007</v>
+        <v>21537.028</v>
       </c>
       <c r="C8" t="n">
         <v>18221.89250000009</v>
       </c>
       <c r="D8" t="n">
-        <v>12485</v>
+        <v>1080</v>
       </c>
       <c r="E8" t="n">
         <v>2625.004</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37010.68300000009</v>
+        <v>33915.31300000004</v>
       </c>
       <c r="C9" t="n">
         <v>30044.31400000005</v>
       </c>
       <c r="D9" t="n">
-        <v>12680.001</v>
+        <v>6088.003</v>
       </c>
       <c r="E9" t="n">
         <v>12045.001</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>11195144678.07602</v>
+        <v>8260608664.057012</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>128692608.8120002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5985795876627004</v>
+        <v>0.8115588775488013</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>3347951326.792</v>
+        <v>410630102.7280001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2990538687140375</v>
+        <v>0.04970942450218049</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>1146008266.057</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1023665436232622</v>
+        <v>0.1387316979490182</v>
       </c>
     </row>
   </sheetData>
